--- a/Project 1/Проект 1.xlsx
+++ b/Project 1/Проект 1.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katy/Documents/Тестирование/Домашняя работа/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3A557B-99EE-5D41-99C6-F159E37027B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1269160-5274-0A4C-A46B-EFC02B08928E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-кейсы логика интерфейса" sheetId="1" r:id="rId1"/>
-    <sheet name="Поле &quot;Часы&quot;" sheetId="2" r:id="rId2"/>
-    <sheet name="Поле &quot;Минуты&quot;" sheetId="3" r:id="rId3"/>
-    <sheet name="Поле &quot;Адрес&quot;" sheetId="4" r:id="rId4"/>
-    <sheet name="Поле &quot;Временной интервал&quot;" sheetId="5" r:id="rId5"/>
-    <sheet name="Поле &quot;Расстояние&quot;" sheetId="6" r:id="rId6"/>
+    <sheet name="mindmap" sheetId="7" r:id="rId2"/>
+    <sheet name="блок-схема" sheetId="8" r:id="rId3"/>
+    <sheet name="Поле &quot;Часы&quot;" sheetId="2" r:id="rId4"/>
+    <sheet name="Поле &quot;Минуты&quot;" sheetId="3" r:id="rId5"/>
+    <sheet name="Поле &quot;Адрес&quot;" sheetId="4" r:id="rId6"/>
+    <sheet name="Поле &quot;Временной интервал&quot;" sheetId="5" r:id="rId7"/>
+    <sheet name="Поле &quot;Расстояние&quot;" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1218,6 +1220,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F47D3A6-7EDD-2245-9596-C0F1C99561CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="76200"/>
+          <a:ext cx="21640800" cy="9925050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085D66B7-CFEE-F942-B0AF-4B5D069A2E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711200" y="190500"/>
+          <a:ext cx="8483600" cy="6883400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2887,12 +2987,6 @@
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="C19:C22"/>
@@ -2902,6 +2996,12 @@
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2909,6 +3009,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58F59B8-CBDB-3D41-978E-CBD4D01809FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="50" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="V79" sqref="V79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C6638D6-453F-5D4E-8D3C-92417CB343E3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B610E92-48DA-BA45-B877-1F52D3B3DE39}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -3152,7 +3282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270D3652-293C-A54A-9464-377BE3E186F8}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -3396,7 +3526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7284DBFA-2311-C040-B3BF-606C1A5D3DBA}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -3705,7 +3835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E47852D-3022-524D-9249-48A74DCAF252}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -3865,7 +3995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3617D01-E3CE-9C4F-BC92-612A80EEABCE}">
   <dimension ref="A1:G5"/>
   <sheetViews>
